--- a/REGULAR/RE-ENCODE/PELIMBERGO, MICHELLE A..xlsx
+++ b/REGULAR/RE-ENCODE/PELIMBERGO, MICHELLE A..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A760BC5-8BBF-4F62-8701-B5FD0FC81347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A7B327-B7E5-4568-9443-065D4EF8D309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -227,6 +227,15 @@
   </si>
   <si>
     <t>12/19,23,26,28,29</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>DSWD</t>
+  </si>
+  <si>
+    <t>DAYCARE WORKER I</t>
   </si>
 </sst>
 </file>
@@ -2627,7 +2636,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K139" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3005,12 +3014,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K139"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A58" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
+      <pane ySplit="3576" activePane="bottomLeft"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3053,12 +3062,16 @@
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="51" t="s">
+        <v>66</v>
+      </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59"/>
+      <c r="F3" s="59">
+        <v>43647</v>
+      </c>
       <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
@@ -3071,12 +3084,16 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="51" t="s">
+        <v>64</v>
+      </c>
       <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
+      <c r="F4" s="56" t="s">
+        <v>65</v>
+      </c>
       <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -3167,7 +3184,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>45.25</v>
+        <v>40.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3177,7 +3194,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>55.25</v>
+        <v>50.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3206,16 +3223,18 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
-        <v>43466</v>
+        <v>43647</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D11" s="39"/>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
@@ -3224,16 +3243,18 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
-        <v>43497</v>
+        <v>43678</v>
       </c>
       <c r="B12" s="20"/>
-      <c r="C12" s="13"/>
+      <c r="C12" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D12" s="39"/>
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G12" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="9"/>
@@ -3242,16 +3263,18 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
-        <v>43525</v>
+        <v>43709</v>
       </c>
       <c r="B13" s="20"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D13" s="39"/>
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G13" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="9"/>
@@ -3260,16 +3283,18 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
-        <v>43556</v>
+        <v>43739</v>
       </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D14" s="39"/>
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G14" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="9"/>
@@ -3278,16 +3303,18 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
-        <v>43586</v>
+        <v>43770</v>
       </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D15" s="39"/>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G15" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
@@ -3296,45 +3323,49 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
-        <v>43617</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
+        <v>43800</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="39"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H16" s="43"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H16" s="39"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="15"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="40">
-        <v>43647</v>
+      <c r="A17" s="48" t="s">
+        <v>45</v>
       </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C17" s="13"/>
       <c r="D17" s="39"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F17" s="20"/>
-      <c r="G17" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G17" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H17" s="39"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
-        <v>43678</v>
+        <v>43831</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13">
@@ -3354,7 +3385,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
-        <v>43709</v>
+        <v>43862</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="13">
@@ -3374,7 +3405,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
-        <v>43739</v>
+        <v>43891</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="13">
@@ -3394,7 +3425,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
-        <v>43770</v>
+        <v>43922</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="13">
@@ -3414,7 +3445,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
-        <v>43800</v>
+        <v>43952</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="13">
@@ -3433,30 +3464,28 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="s">
-        <v>45</v>
+      <c r="A23" s="40">
+        <v>43983</v>
       </c>
       <c r="B23" s="20"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D23" s="39"/>
-      <c r="E23" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E23" s="9"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G23" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H23" s="39"/>
-      <c r="I23" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I23" s="9"/>
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
-        <v>43831</v>
+        <v>44013</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13">
@@ -3476,7 +3505,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
-        <v>43862</v>
+        <v>44044</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13">
@@ -3496,7 +3525,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
-        <v>43891</v>
+        <v>44075</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13">
@@ -3516,7 +3545,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
-        <v>43922</v>
+        <v>44105</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13">
@@ -3536,7 +3565,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
-        <v>43952</v>
+        <v>44136</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13">
@@ -3556,13 +3585,17 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
-        <v>43983</v>
-      </c>
-      <c r="B29" s="20"/>
+        <v>44166</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C29" s="13">
         <v>1.25</v>
       </c>
-      <c r="D29" s="39"/>
+      <c r="D29" s="39">
+        <v>5</v>
+      </c>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
       <c r="G29" s="13">
@@ -3575,28 +3608,30 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="40">
-        <v>44013</v>
+      <c r="A30" s="48" t="s">
+        <v>44</v>
       </c>
       <c r="B30" s="20"/>
-      <c r="C30" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C30" s="13"/>
       <c r="D30" s="39"/>
-      <c r="E30" s="9"/>
+      <c r="E30" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F30" s="20"/>
-      <c r="G30" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G30" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H30" s="39"/>
-      <c r="I30" s="9"/>
+      <c r="I30" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
-        <v>44044</v>
+        <v>44197</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
@@ -3616,9 +3651,11 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
-        <v>44075</v>
-      </c>
-      <c r="B32" s="20"/>
+        <v>44228</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C32" s="13">
         <v>1.25</v>
       </c>
@@ -3632,31 +3669,35 @@
       <c r="H32" s="39"/>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="20"/>
+      <c r="K32" s="20" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="40">
-        <v>44105</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A33" s="40"/>
+      <c r="B33" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="13"/>
       <c r="D33" s="39"/>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H33" s="39"/>
+      <c r="G33" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H33" s="39">
+        <v>1</v>
+      </c>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
+      <c r="K33" s="49">
+        <v>44229</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
-        <v>44136</v>
+        <v>44256</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
@@ -3676,17 +3717,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
-        <v>44166</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>46</v>
-      </c>
+        <v>44287</v>
+      </c>
+      <c r="B35" s="20"/>
       <c r="C35" s="13">
         <v>1.25</v>
       </c>
-      <c r="D35" s="39">
-        <v>5</v>
-      </c>
+      <c r="D35" s="39"/>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
       <c r="G35" s="13">
@@ -3699,30 +3736,28 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="48" t="s">
-        <v>44</v>
+      <c r="A36" s="40">
+        <v>44317</v>
       </c>
       <c r="B36" s="20"/>
-      <c r="C36" s="13"/>
+      <c r="C36" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D36" s="39"/>
-      <c r="E36" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E36" s="9"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G36" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H36" s="39"/>
-      <c r="I36" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I36" s="9"/>
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
-        <v>44197</v>
+        <v>44348</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13">
@@ -3742,7 +3777,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
-        <v>44228</v>
+        <v>44378</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>47</v>
@@ -3761,13 +3796,13 @@
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
       <c r="K38" s="20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="39"/>
@@ -3777,18 +3812,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H39" s="39">
-        <v>1</v>
-      </c>
+      <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="49">
-        <v>44229</v>
+      <c r="K39" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
-        <v>44256</v>
+        <v>44409</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13">
@@ -3808,7 +3841,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <v>44287</v>
+        <v>44440</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
@@ -3828,7 +3861,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <v>44317</v>
+        <v>44470</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13">
@@ -3848,7 +3881,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <v>44348</v>
+        <v>44501</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -3868,15 +3901,17 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
-        <v>44378</v>
+        <v>44531</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C44" s="13">
         <v>1.25</v>
       </c>
-      <c r="D44" s="39"/>
+      <c r="D44" s="39">
+        <v>3</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
       <c r="G44" s="13">
@@ -3887,13 +3922,13 @@
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
       <c r="K44" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="39"/>
@@ -3903,47 +3938,49 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H45" s="39"/>
+      <c r="H45" s="39">
+        <v>1</v>
+      </c>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="20" t="s">
-        <v>53</v>
+      <c r="K45" s="49">
+        <v>44537</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="40">
-        <v>44409</v>
-      </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A46" s="40"/>
+      <c r="B46" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="13"/>
       <c r="D46" s="39"/>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G46" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H46" s="39"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20"/>
+      <c r="K46" s="20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="40">
-        <v>44440</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D47" s="39"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="39">
+        <v>2</v>
+      </c>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G47" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H47" s="39"/>
       <c r="I47" s="9"/>
@@ -3951,30 +3988,34 @@
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="40">
-        <v>44470</v>
+      <c r="A48" s="48" t="s">
+        <v>43</v>
       </c>
       <c r="B48" s="20"/>
-      <c r="C48" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C48" s="13"/>
       <c r="D48" s="39"/>
-      <c r="E48" s="9"/>
+      <c r="E48" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F48" s="20"/>
-      <c r="G48" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G48" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H48" s="39"/>
-      <c r="I48" s="9"/>
+      <c r="I48" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <v>44501</v>
-      </c>
-      <c r="B49" s="20"/>
+        <v>44562</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C49" s="13">
         <v>1.25</v>
       </c>
@@ -3988,21 +4029,19 @@
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20"/>
+      <c r="K49" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <v>44531</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>49</v>
-      </c>
+        <v>44593</v>
+      </c>
+      <c r="B50" s="20"/>
       <c r="C50" s="13">
         <v>1.25</v>
       </c>
-      <c r="D50" s="39">
-        <v>3</v>
-      </c>
+      <c r="D50" s="39"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
       <c r="G50" s="13">
@@ -4012,66 +4051,62 @@
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
-      <c r="B51" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="13"/>
+      <c r="A51" s="40">
+        <v>44621</v>
+      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D51" s="39"/>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H51" s="39">
-        <v>1</v>
-      </c>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="49">
-        <v>44537</v>
-      </c>
+      <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
-      <c r="B52" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="13"/>
+      <c r="A52" s="40">
+        <v>44652</v>
+      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D52" s="39"/>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G52" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
-      <c r="B53" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="39">
-        <v>2</v>
-      </c>
+      <c r="A53" s="40">
+        <v>44682</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D53" s="39"/>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G53" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
@@ -4079,33 +4114,31 @@
       <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="48" t="s">
-        <v>43</v>
+      <c r="A54" s="40">
+        <v>44713</v>
       </c>
       <c r="B54" s="20"/>
-      <c r="C54" s="13"/>
+      <c r="C54" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D54" s="39"/>
-      <c r="E54" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E54" s="9"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G54" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H54" s="39"/>
-      <c r="I54" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I54" s="9"/>
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>44562</v>
+        <v>44743</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C55" s="13">
         <v>1.25</v>
@@ -4117,47 +4150,51 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H55" s="39"/>
+      <c r="H55" s="39">
+        <v>2</v>
+      </c>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="20" t="s">
-        <v>60</v>
+      <c r="K55" s="49">
+        <v>44746</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="40">
-        <v>44593</v>
-      </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A56" s="40"/>
+      <c r="B56" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="13"/>
       <c r="D56" s="39"/>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H56" s="39"/>
+      <c r="G56" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H56" s="39">
+        <v>2</v>
+      </c>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="20"/>
+      <c r="K56" s="20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="40">
-        <v>44621</v>
-      </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D57" s="39"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="39">
+        <v>1</v>
+      </c>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
-      <c r="G57" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G57" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H57" s="39"/>
       <c r="I57" s="9"/>
@@ -4166,7 +4203,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>44652</v>
+        <v>44774</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -4182,11 +4219,13 @@
       <c r="H58" s="39"/>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="20"/>
+      <c r="K58" s="49">
+        <v>44774</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>44682</v>
+        <v>44805</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13">
@@ -4206,7 +4245,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>44713</v>
+        <v>44835</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -4226,11 +4265,9 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>44866</v>
+      </c>
+      <c r="B61" s="20"/>
       <c r="C61" s="13">
         <v>1.25</v>
       </c>
@@ -4241,46 +4278,44 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H61" s="39">
-        <v>2</v>
-      </c>
+      <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="49">
-        <v>44746</v>
-      </c>
+      <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
+      <c r="A62" s="40">
+        <v>44896</v>
+      </c>
       <c r="B62" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="C62" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D62" s="39">
+        <v>5</v>
+      </c>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H62" s="39">
-        <v>2</v>
-      </c>
+      <c r="G62" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
       <c r="K62" s="20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="40"/>
-      <c r="B63" s="20" t="s">
-        <v>58</v>
-      </c>
+      <c r="A63" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="20"/>
       <c r="C63" s="13"/>
-      <c r="D63" s="39">
-        <v>1</v>
-      </c>
+      <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
       <c r="G63" s="13" t="str">
@@ -4294,7 +4329,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>44774</v>
+        <v>44927</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13">
@@ -4310,13 +4345,11 @@
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="49">
-        <v>44774</v>
-      </c>
+      <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>44805</v>
+        <v>44958</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -4336,7 +4369,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>44835</v>
+        <v>44986</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
@@ -4356,18 +4389,16 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>44866</v>
+        <v>45017</v>
       </c>
       <c r="B67" s="20"/>
-      <c r="C67" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C67" s="13"/>
       <c r="D67" s="39"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G67" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
@@ -4376,33 +4407,25 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D68" s="39">
-        <v>5</v>
-      </c>
+        <v>45047</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="39"/>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G68" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="20" t="s">
-        <v>63</v>
-      </c>
+      <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="48" t="s">
-        <v>61</v>
+      <c r="A69" s="40">
+        <v>45078</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4420,18 +4443,16 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>44927</v>
+        <v>45108</v>
       </c>
       <c r="B70" s="20"/>
-      <c r="C70" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C70" s="13"/>
       <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G70" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
@@ -4440,7 +4461,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>44958</v>
+        <v>45139</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4458,7 +4479,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>44986</v>
+        <v>45170</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4476,7 +4497,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>45017</v>
+        <v>45200</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4494,7 +4515,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>45047</v>
+        <v>45231</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4512,7 +4533,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>45078</v>
+        <v>45261</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4530,7 +4551,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>45108</v>
+        <v>45292</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4547,9 +4568,7 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
@@ -4565,9 +4584,7 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
       <c r="D78" s="39"/>
@@ -4583,9 +4600,7 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
@@ -4601,9 +4616,7 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -4619,9 +4632,7 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -4637,9 +4648,7 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40">
-        <v>45292</v>
-      </c>
+      <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -5455,116 +5464,20 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="40"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="39"/>
+      <c r="A133" s="41"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="43"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="39"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="43"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="11"/>
-      <c r="K133" s="20"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="40"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="39"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="20"/>
-      <c r="G134" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="39"/>
-      <c r="I134" s="9"/>
-      <c r="J134" s="11"/>
-      <c r="K134" s="20"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="40"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="39"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="39"/>
-      <c r="I135" s="9"/>
-      <c r="J135" s="11"/>
-      <c r="K135" s="20"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="40"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="39"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="20"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="40"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="39"/>
-      <c r="I137" s="9"/>
-      <c r="J137" s="11"/>
-      <c r="K137" s="20"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="40"/>
-      <c r="B138" s="20"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="20"/>
-      <c r="G138" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H138" s="39"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="11"/>
-      <c r="K138" s="20"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="41"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="42"/>
-      <c r="D139" s="43"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H139" s="43"/>
-      <c r="I139" s="9"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="15"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5612,7 +5525,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5672,12 +5585,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>7.5</v>
-      </c>
-      <c r="B3" s="11">
-        <v>7.5</v>
-      </c>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
